--- a/pickles/dbcopy_insert.xlsx
+++ b/pickles/dbcopy_insert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plr03474\NoOneDrive\Python\ArturWebApp\pickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D25FBB6-1B32-49ED-9282-5ADDF41704EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F4B6FA-14A7-4019-93F0-8D1F085B8019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>time_completion</t>
   </si>
   <si>
-    <t>time_line</t>
-  </si>
-  <si>
     <t>duration_plan</t>
   </si>
   <si>
@@ -61,18 +58,114 @@
     <t>order</t>
   </si>
   <si>
+    <t>show_menu</t>
+  </si>
+  <si>
     <t>id_strategy</t>
   </si>
   <si>
     <t>id_project</t>
   </si>
   <si>
+    <t>Data clean for Georgios</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
+    <t>Continues</t>
+  </si>
+  <si>
+    <t>Start datacamp - ultimate goal is data scientist</t>
+  </si>
+  <si>
     <t>OneTime</t>
   </si>
   <si>
+    <t>Learn Javascript + react vue or agular</t>
+  </si>
+  <si>
+    <t>Learn pytest</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>BUG: task update +4h works for next 1h (when loading), so SelectField shows 'now'. ALL changed with move '&gt;' '&lt;' will not WORK!!</t>
+  </si>
+  <si>
+    <t>Solution: update function for choices to pick correct timeline</t>
+  </si>
+  <si>
+    <t>BUG Solution: update function for choices to pick correct timeline</t>
+  </si>
+  <si>
+    <t>Adding tasks on timeline button on each category</t>
+  </si>
+  <si>
+    <t>New timeline logic and function - one for all</t>
+  </si>
+  <si>
+    <t>Timeline bug - edit task would not work</t>
+  </si>
+  <si>
+    <t>Set venv for Georgios</t>
+  </si>
+  <si>
+    <t>Set venv for Anand</t>
+  </si>
+  <si>
+    <t>Make overview of what was delivered by Anand and put in folders</t>
+  </si>
+  <si>
+    <t>Aggregate and clean data</t>
+  </si>
+  <si>
+    <t>Tax NL</t>
+  </si>
+  <si>
+    <t>Apply to addidas</t>
+  </si>
+  <si>
+    <t>Start exercise. Stop cancer and heart attack.</t>
+  </si>
+  <si>
+    <t>Read book</t>
+  </si>
+  <si>
+    <t>Parcels for cooper cleaning</t>
+  </si>
+  <si>
+    <t>Add Menu filter by strategy, Projects, timeline (button groups)</t>
+  </si>
+  <si>
+    <t>Double tracking number issue</t>
+  </si>
+  <si>
+    <t>Summary graph</t>
+  </si>
+  <si>
+    <t>Add a copy task button</t>
+  </si>
+  <si>
+    <t>Change Frequency - Continous into every X days (to cover running every 2 days)</t>
+  </si>
+  <si>
+    <t>Deploy to python everywhere</t>
+  </si>
+  <si>
+    <t>Add alconsumption</t>
+  </si>
+  <si>
+    <t>Buy binnenband 26 1.75</t>
+  </si>
+  <si>
+    <t>Rapair bakfiest</t>
+  </si>
+  <si>
+    <t>iPlan Feature: plan hrs in month and let script propose when including postponements</t>
+  </si>
+  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -118,7 +211,7 @@
     <t>General</t>
   </si>
   <si>
-    <t>#DCDCDC</t>
+    <t>#b1b4b5</t>
   </si>
   <si>
     <t>Untracked</t>
@@ -133,13 +226,19 @@
     <t>#82d7ff</t>
   </si>
   <si>
+    <t>India ND</t>
+  </si>
+  <si>
+    <t>#97e8a0</t>
+  </si>
+  <si>
     <t>version_num</t>
   </si>
   <si>
-    <t>db4e7b025e52</t>
-  </si>
-  <si>
-    <t>Check</t>
+    <t>e17d35e4019d</t>
+  </si>
+  <si>
+    <t>time_due</t>
   </si>
 </sst>
 </file>
@@ -506,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,58 +636,1225 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43929.612627627313</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43935.766892356449</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43935</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25569.0625</v>
+      </c>
+      <c r="J2" s="2">
+        <v>25569.102777777782</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43929.894150115739</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43941.999305555553</v>
+      </c>
+      <c r="I3" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J3" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L3">
+        <v>205</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43929.905651006942</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44560.999305555553</v>
+      </c>
+      <c r="I4" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J4" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L4">
+        <v>715</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>43930.396010185177</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43952</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J5" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L5">
+        <v>614</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43931.435558657409</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43941.389502314807</v>
+      </c>
+      <c r="I6" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J6" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L6">
+        <v>104</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43931.501387314813</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43941.389606481483</v>
+      </c>
+      <c r="I7" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J7" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L7">
+        <v>106</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43931.502632951393</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43938.504277177628</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43938</v>
+      </c>
+      <c r="I8" s="2">
+        <v>25569.013888888891</v>
+      </c>
+      <c r="J8" s="2">
+        <v>25569.03504046419</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43934.352580879633</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43941.389456018522</v>
+      </c>
+      <c r="I9" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="J9" s="2">
+        <v>25569.005684610769</v>
+      </c>
+      <c r="K9" s="2">
+        <v>43941.600318467572</v>
+      </c>
+      <c r="L9">
+        <v>102</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43934.354310173607</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43941.389479166668</v>
+      </c>
+      <c r="I10" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="J10" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L10">
+        <v>103</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43935.283698439664</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43935.68423278183</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43935</v>
+      </c>
+      <c r="I11" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J11" s="2">
+        <v>25569.041253623029</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>43935.285558815172</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43943</v>
+      </c>
+      <c r="I12" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J12" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L12">
+        <v>407</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43935.286250228703</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43943</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="J13" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L13">
+        <v>408</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43935.289253890449</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43943</v>
+      </c>
+      <c r="I14" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L14">
+        <v>409</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43935.29684765741</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43943</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L15">
+        <v>410</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43935.297219557011</v>
+      </c>
+      <c r="G16" s="2">
+        <v>43935.867519493208</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43935.833333333343</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L16">
+        <v>206</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43935.298676194892</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43941.377913282093</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43938.833333333343</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43935.426763447816</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43936.603081444307</v>
+      </c>
+      <c r="H18" s="2">
+        <v>43936.832638888889</v>
+      </c>
+      <c r="I18" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J18" s="2">
+        <v>25569.0492125563</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43935.68355912697</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43938.746700308831</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43938</v>
+      </c>
+      <c r="I19" s="2">
+        <v>25569.0625</v>
+      </c>
+      <c r="J19" s="2">
+        <v>25569.070608583312</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43936.367193499042</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43941.832638888889</v>
+      </c>
+      <c r="I20" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="J20" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L20">
+        <v>112</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43936.519748284118</v>
+      </c>
+      <c r="G21" s="2">
+        <v>43937.46911462432</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43937.406736111108</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J21" s="2">
+        <v>25569.01439187054</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43937.385781476172</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43938.576848711098</v>
+      </c>
+      <c r="H22" s="2">
+        <v>43938.406736111108</v>
+      </c>
+      <c r="I22" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J22" s="2">
+        <v>25569.024670814961</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43934.438430533868</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43934</v>
-      </c>
-      <c r="I2" s="2">
-        <v>25569</v>
-      </c>
-      <c r="J2" s="2">
-        <v>25569</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43938.42027111417</v>
+      </c>
+      <c r="G23" s="2">
+        <v>43938.746680572607</v>
+      </c>
+      <c r="H23" s="2">
+        <v>43938</v>
+      </c>
+      <c r="I23" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="J23" s="2">
+        <v>25569.069571631469</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43938.430392831251</v>
+      </c>
+      <c r="H24" s="2">
+        <v>43941.832638888889</v>
+      </c>
+      <c r="I24" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="J24" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L24">
+        <v>113</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43938.493515521033</v>
+      </c>
+      <c r="G25" s="2">
+        <v>43940.635662302222</v>
+      </c>
+      <c r="H25" s="2">
+        <v>43940</v>
+      </c>
+      <c r="I25" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J25" s="2">
+        <v>25569.039258754539</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43940.552329095881</v>
+      </c>
+      <c r="G26" s="2">
+        <v>43941.59180947682</v>
+      </c>
+      <c r="H26" s="2">
+        <v>43941.542071759257</v>
+      </c>
+      <c r="I26" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J26" s="2">
+        <v>25569.02473680328</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2">
+        <v>43941.289014953283</v>
+      </c>
+      <c r="H27" s="2">
+        <v>43941.832638888889</v>
+      </c>
+      <c r="I27" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="J27" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L27">
+        <v>111</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2">
+        <v>43941.2957295866</v>
+      </c>
+      <c r="H28" s="2">
+        <v>43941.832638888889</v>
+      </c>
+      <c r="I28" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="J28" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L28">
+        <v>101</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2">
+        <v>43941.306077157657</v>
+      </c>
+      <c r="H29" s="2">
+        <v>43941.541666666657</v>
+      </c>
+      <c r="I29" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J29" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L29">
+        <v>116</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2">
+        <v>43941.307375732533</v>
+      </c>
+      <c r="H30" s="2">
+        <v>43941.833333333343</v>
+      </c>
+      <c r="I30" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J30" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2">
+        <v>43941.456113393069</v>
+      </c>
+      <c r="H31" s="2">
+        <v>43941.666666666657</v>
+      </c>
+      <c r="I31" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J31" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2">
+        <v>43941.456768108692</v>
+      </c>
+      <c r="H32" s="2">
+        <v>43941.666666666657</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25569.083333333328</v>
+      </c>
+      <c r="J32" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43941.491816810783</v>
+      </c>
+      <c r="H33" s="2">
+        <v>43952</v>
+      </c>
+      <c r="I33" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J33" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>43941.508476305084</v>
+      </c>
+      <c r="H34" s="2">
+        <v>43942.542071759257</v>
+      </c>
+      <c r="I34" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="J34" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L34">
+        <v>100</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,16 +1878,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -638,19 +1904,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>43924.962984901329</v>
+        <v>43924.962984895843</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,22 +1924,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" s="2">
-        <v>43925.481845765709</v>
+        <v>43925.48184576389</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,19 +1947,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>43926.487764078702</v>
+        <v>43926.487764074067</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -701,22 +1967,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>43926.949720448669</v>
+        <v>43926.94972045139</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,19 +1990,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>43929.396777382419</v>
+        <v>43929.39677738426</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,22 +2010,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>43929.423342977861</v>
+        <v>43929.423342974544</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43935.370733865879</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -801,12 +2087,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/pickles/dbcopy_insert.xlsx
+++ b/pickles/dbcopy_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plr03474\NoOneDrive\Python\ArturWebApp\pickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F4B6FA-14A7-4019-93F0-8D1F085B8019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1569E9-E7A4-4330-91E6-2FEBA4B88346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,22 @@
     <sheet name="project" sheetId="3" r:id="rId3"/>
     <sheet name="alembic_version" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +56,9 @@
     <t>time_completion</t>
   </si>
   <si>
+    <t>time_due</t>
+  </si>
+  <si>
     <t>duration_plan</t>
   </si>
   <si>
@@ -166,6 +179,21 @@
     <t>iPlan Feature: plan hrs in month and let script propose when including postponements</t>
   </si>
   <si>
+    <t>Recheck</t>
+  </si>
+  <si>
+    <t>Git learn with branches and restoring</t>
+  </si>
+  <si>
+    <t>Restore data from MacBook</t>
+  </si>
+  <si>
+    <t>Git book from Git-internet</t>
+  </si>
+  <si>
+    <t>Add to task name nb od days since adding and badge colors (red very delayed)</t>
+  </si>
+  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -235,10 +263,13 @@
     <t>version_num</t>
   </si>
   <si>
-    <t>e17d35e4019d</t>
-  </si>
-  <si>
-    <t>time_due</t>
+    <t>3acd2d3ed854</t>
+  </si>
+  <si>
+    <t>time_line</t>
+  </si>
+  <si>
+    <t>Now</t>
   </si>
 </sst>
 </file>
@@ -246,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -302,7 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,82 +636,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43929.612627627313</v>
       </c>
       <c r="F2" s="2">
-        <v>43929.612627627313</v>
+        <v>43935.766892361113</v>
       </c>
       <c r="G2" s="2">
-        <v>43935.766892356449</v>
-      </c>
-      <c r="H2" s="2">
         <v>43935</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I2" s="2">
         <v>25569.0625</v>
@@ -699,23 +730,23 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
         <v>43929.894150115739</v>
       </c>
-      <c r="H3" s="2">
-        <v>43941.999305555553</v>
+      <c r="G3" s="2">
+        <v>43943.999305555553</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I3" s="2">
         <v>25569</v>
@@ -724,7 +755,7 @@
         <v>25569</v>
       </c>
       <c r="L3">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -734,24 +765,24 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
         <v>43929.905651006942</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>44560.999305555553</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I4" s="2">
         <v>25569</v>
       </c>
@@ -759,7 +790,7 @@
         <v>25569</v>
       </c>
       <c r="L4">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -769,24 +800,24 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
         <v>43930.396010185177</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
         <v>43952</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I5" s="2">
         <v>25569</v>
       </c>
@@ -794,7 +825,7 @@
         <v>25569</v>
       </c>
       <c r="L5">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -804,27 +835,27 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>61</v>
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
         <v>43931.435558657409</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>43941.389502314807</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I6" s="2">
         <v>25569</v>
       </c>
@@ -832,7 +863,7 @@
         <v>25569</v>
       </c>
       <c r="L6">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -842,24 +873,24 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
         <v>43931.501387314813</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
         <v>43941.389606481483</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I7" s="2">
         <v>25569</v>
       </c>
@@ -867,7 +898,7 @@
         <v>25569</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -877,32 +908,32 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43931.502632951393</v>
       </c>
       <c r="F8" s="2">
-        <v>43931.502632951393</v>
+        <v>43938.504277175933</v>
       </c>
       <c r="G8" s="2">
-        <v>43938.504277177628</v>
-      </c>
-      <c r="H8" s="2">
         <v>43938</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I8" s="2">
         <v>25569.013888888891</v>
       </c>
       <c r="J8" s="2">
-        <v>25569.03504046419</v>
+        <v>25569.035040462961</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -915,35 +946,32 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
         <v>43934.352580879633</v>
       </c>
-      <c r="H9" s="2">
-        <v>43941.389456018522</v>
+      <c r="G9" s="2">
+        <v>43942</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I9" s="2">
         <v>25569.083333333328</v>
       </c>
       <c r="J9" s="2">
-        <v>25569.005684610769</v>
-      </c>
-      <c r="K9" s="2">
-        <v>43941.600318467572</v>
+        <v>25569.028896028929</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -953,23 +981,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
         <v>43934.354310173607</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2">
         <v>43941.389479166668</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I10" s="2">
         <v>25569.041666666672</v>
@@ -978,7 +1006,7 @@
         <v>25569</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -988,32 +1016,32 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43935.283698437503</v>
       </c>
       <c r="F11" s="2">
-        <v>43935.283698439664</v>
+        <v>43935.684232777778</v>
       </c>
       <c r="G11" s="2">
-        <v>43935.68423278183</v>
-      </c>
-      <c r="H11" s="2">
         <v>43935</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I11" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="J11" s="2">
-        <v>25569.041253623029</v>
+        <v>25569.04125362269</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1026,23 +1054,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
-        <v>43935.285558815172</v>
-      </c>
-      <c r="H12" s="2">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43935.285558819443</v>
+      </c>
+      <c r="G12" s="2">
         <v>43943</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I12" s="2">
         <v>25569.020833333328</v>
@@ -1051,7 +1079,7 @@
         <v>25569</v>
       </c>
       <c r="L12">
-        <v>407</v>
+        <v>314</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1061,23 +1089,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
-        <v>43935.286250228703</v>
-      </c>
-      <c r="H13" s="2">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43935.286250231482</v>
+      </c>
+      <c r="G13" s="2">
         <v>43943</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I13" s="2">
         <v>25569.041666666672</v>
@@ -1086,7 +1114,7 @@
         <v>25569</v>
       </c>
       <c r="L13">
-        <v>408</v>
+        <v>315</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1096,23 +1124,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>43935.289253890449</v>
-      </c>
-      <c r="H14" s="2">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43935.289253888892</v>
+      </c>
+      <c r="G14" s="2">
         <v>43943</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I14" s="2">
         <v>25569.083333333328</v>
@@ -1121,7 +1149,7 @@
         <v>25569</v>
       </c>
       <c r="L14">
-        <v>409</v>
+        <v>316</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1131,24 +1159,24 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2">
-        <v>43935.29684765741</v>
-      </c>
-      <c r="H15" s="2">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43935.296847662037</v>
+      </c>
+      <c r="G15" s="2">
         <v>43943</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" s="2">
         <v>25569</v>
       </c>
@@ -1156,7 +1184,7 @@
         <v>25569</v>
       </c>
       <c r="L15">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1166,26 +1194,26 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43935.297219560183</v>
       </c>
       <c r="F16" s="2">
-        <v>43935.297219557011</v>
+        <v>43935.867519490741</v>
       </c>
       <c r="G16" s="2">
-        <v>43935.867519493208</v>
-      </c>
-      <c r="H16" s="2">
         <v>43935.833333333343</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I16" s="2">
         <v>25569</v>
@@ -1204,26 +1232,26 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43935.298676192127</v>
       </c>
       <c r="F17" s="2">
-        <v>43935.298676194892</v>
+        <v>43941.37791328704</v>
       </c>
       <c r="G17" s="2">
-        <v>43941.377913282093</v>
-      </c>
-      <c r="H17" s="2">
         <v>43938.833333333343</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I17" s="2">
         <v>25569</v>
@@ -1242,32 +1270,32 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43935.426763449083</v>
       </c>
       <c r="F18" s="2">
-        <v>43935.426763447816</v>
+        <v>43936.603081446759</v>
       </c>
       <c r="G18" s="2">
-        <v>43936.603081444307</v>
-      </c>
-      <c r="H18" s="2">
         <v>43936.832638888889</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I18" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="J18" s="2">
-        <v>25569.0492125563</v>
+        <v>25569.049212557871</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1280,32 +1308,32 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43935.683559131947</v>
       </c>
       <c r="F19" s="2">
-        <v>43935.68355912697</v>
+        <v>43938.746700312498</v>
       </c>
       <c r="G19" s="2">
-        <v>43938.746700308831</v>
-      </c>
-      <c r="H19" s="2">
         <v>43938</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I19" s="2">
         <v>25569.0625</v>
       </c>
       <c r="J19" s="2">
-        <v>25569.070608583312</v>
+        <v>25569.070608587961</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -1318,23 +1346,23 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <v>43936.367193499042</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43941.832638888889</v>
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43936.367193495367</v>
+      </c>
+      <c r="G20" s="2">
+        <v>43942.832638888889</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I20" s="2">
         <v>25569.083333333328</v>
@@ -1343,7 +1371,7 @@
         <v>25569</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -1353,32 +1381,32 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43936.519748287043</v>
       </c>
       <c r="F21" s="2">
-        <v>43936.519748284118</v>
+        <v>43937.469114629632</v>
       </c>
       <c r="G21" s="2">
-        <v>43937.46911462432</v>
-      </c>
-      <c r="H21" s="2">
         <v>43937.406736111108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I21" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="J21" s="2">
-        <v>25569.01439187054</v>
+        <v>25569.014391875</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1391,32 +1419,32 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43937.385781481476</v>
       </c>
       <c r="F22" s="2">
-        <v>43937.385781476172</v>
+        <v>43938.576848715267</v>
       </c>
       <c r="G22" s="2">
-        <v>43938.576848711098</v>
-      </c>
-      <c r="H22" s="2">
         <v>43938.406736111108</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I22" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="J22" s="2">
-        <v>25569.024670814961</v>
+        <v>25569.02467081018</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1429,32 +1457,32 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43938.420271111107</v>
       </c>
       <c r="F23" s="2">
-        <v>43938.42027111417</v>
+        <v>43938.746680567128</v>
       </c>
       <c r="G23" s="2">
-        <v>43938.746680572607</v>
-      </c>
-      <c r="H23" s="2">
         <v>43938</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I23" s="2">
         <v>25569.041666666672</v>
       </c>
       <c r="J23" s="2">
-        <v>25569.069571631469</v>
+        <v>25569.06957163195</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1467,23 +1495,23 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2">
-        <v>43938.430392831251</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43941.832638888889</v>
+        <v>19</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43938.430392835653</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43942.832638888889</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I24" s="2">
         <v>25569.083333333328</v>
@@ -1492,7 +1520,7 @@
         <v>25569</v>
       </c>
       <c r="L24">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -1502,32 +1530,32 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>35</v>
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43938.493515520837</v>
       </c>
       <c r="F25" s="2">
-        <v>43938.493515521033</v>
+        <v>43940.635662303241</v>
       </c>
       <c r="G25" s="2">
-        <v>43940.635662302222</v>
-      </c>
-      <c r="H25" s="2">
         <v>43940</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I25" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="J25" s="2">
-        <v>25569.039258754539</v>
+        <v>25569.039258749999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1540,32 +1568,32 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43940.55232909722</v>
       </c>
       <c r="F26" s="2">
-        <v>43940.552329095881</v>
+        <v>43941.591809479163</v>
       </c>
       <c r="G26" s="2">
-        <v>43941.59180947682</v>
-      </c>
-      <c r="H26" s="2">
         <v>43941.542071759257</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I26" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="J26" s="2">
-        <v>25569.02473680328</v>
+        <v>25569.024736805561</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -1578,23 +1606,23 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2">
-        <v>43941.289014953283</v>
-      </c>
-      <c r="H27" s="2">
-        <v>43941.832638888889</v>
+        <v>19</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43941.289014953712</v>
+      </c>
+      <c r="G27" s="2">
+        <v>43942.832638888889</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I27" s="2">
         <v>25569.041666666672</v>
@@ -1603,7 +1631,7 @@
         <v>25569</v>
       </c>
       <c r="L27">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -1613,23 +1641,23 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="2">
-        <v>43941.2957295866</v>
-      </c>
-      <c r="H28" s="2">
-        <v>43941.832638888889</v>
+        <v>19</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43941.295729583333</v>
+      </c>
+      <c r="G28" s="2">
+        <v>43942.832638888889</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I28" s="2">
         <v>25569.041666666672</v>
@@ -1638,7 +1666,7 @@
         <v>25569</v>
       </c>
       <c r="L28">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -1648,23 +1676,23 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="2">
-        <v>43941.306077157657</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43941.541666666657</v>
+        <v>19</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43941.306077152767</v>
+      </c>
+      <c r="G29" s="2">
+        <v>43942.832638888889</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I29" s="2">
         <v>25569</v>
@@ -1673,7 +1701,7 @@
         <v>25569</v>
       </c>
       <c r="L29">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
@@ -1683,23 +1711,23 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2">
-        <v>43941.307375732533</v>
-      </c>
-      <c r="H30" s="2">
-        <v>43941.833333333343</v>
+        <v>19</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43941.307375729157</v>
+      </c>
+      <c r="G30" s="2">
+        <v>43942.832638888889</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I30" s="2">
         <v>25569</v>
@@ -1708,7 +1736,7 @@
         <v>25569</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -1718,24 +1746,27 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43941.456113391207</v>
       </c>
       <c r="F31" s="2">
-        <v>43941.456113393069</v>
-      </c>
-      <c r="H31" s="2">
+        <v>43941.738216623853</v>
+      </c>
+      <c r="G31" s="2">
         <v>43941.666666666657</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I31" s="2">
         <v>25569</v>
       </c>
@@ -1743,33 +1774,36 @@
         <v>25569</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43941.456768113429</v>
       </c>
       <c r="F32" s="2">
-        <v>43941.456768108692</v>
-      </c>
-      <c r="H32" s="2">
+        <v>43941.738247609093</v>
+      </c>
+      <c r="G32" s="2">
         <v>43941.666666666657</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I32" s="2">
         <v>25569.083333333328</v>
@@ -1778,34 +1812,34 @@
         <v>25569</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="M32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="2">
-        <v>43941.491816810783</v>
-      </c>
-      <c r="H33" s="2">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43941.491816805552</v>
+      </c>
+      <c r="G33" s="2">
         <v>43952</v>
       </c>
+      <c r="H33" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="I33" s="2">
         <v>25569</v>
       </c>
@@ -1813,7 +1847,7 @@
         <v>25569</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
@@ -1823,23 +1857,23 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="2">
-        <v>43941.508476305084</v>
-      </c>
-      <c r="H34" s="2">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43941.50847630787</v>
+      </c>
+      <c r="G34" s="2">
         <v>43942.542071759257</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I34" s="2">
         <v>25569.020833333328</v>
@@ -1848,13 +1882,194 @@
         <v>25569</v>
       </c>
       <c r="L34">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43941.539647295613</v>
+      </c>
+      <c r="F35" s="2">
+        <v>43941.623180577648</v>
+      </c>
+      <c r="G35" s="2">
+        <v>43942</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J35" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43942.307403466009</v>
+      </c>
+      <c r="F36" s="2">
+        <v>43942.500840106259</v>
+      </c>
+      <c r="G36" s="2">
+        <v>43942</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="2">
+        <v>25569.041666666672</v>
+      </c>
+      <c r="J36" s="2">
+        <v>25569.04161664475</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43942.310727992517</v>
+      </c>
+      <c r="G37" s="2">
+        <v>43942.541666666657</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J37" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L37">
+        <v>112</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43942.385211659952</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="2">
+        <v>25569.416666666672</v>
+      </c>
+      <c r="J38" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L38">
+        <v>700</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43942.449071714502</v>
+      </c>
+      <c r="G39" s="2">
+        <v>43942</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="2">
+        <v>25569</v>
+      </c>
+      <c r="J39" s="2">
+        <v>25569</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1878,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1904,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1916,7 +2131,7 @@
         <v>43924.962984895843</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,13 +2139,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1939,7 +2154,7 @@
         <v>43925.48184576389</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1947,10 +2162,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1959,7 +2174,7 @@
         <v>43926.487764074067</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1967,13 +2182,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1982,7 +2197,7 @@
         <v>43926.94972045139</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1990,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2002,7 +2217,7 @@
         <v>43929.39677738426</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2010,13 +2225,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2025,7 +2240,7 @@
         <v>43929.423342974544</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,19 +2248,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>43935.370733865879</v>
+        <v>43935.37073386574</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2087,12 +2302,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/pickles/dbcopy_insert.xlsx
+++ b/pickles/dbcopy_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plr03474\NoOneDrive\Python\ArturWebApp\pickles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1047176-AA62-429E-9F9C-0A6DBC879530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03698DA-20D6-44D0-9948-0B22B24B3629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,12 @@
     <sheet name="project" sheetId="3" r:id="rId3"/>
     <sheet name="alembic_version" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">task!$A$1:$Q$118</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -911,30 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -989,7 +969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1033,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1053,7 +1033,7 @@
         <v>43929.894150115739</v>
       </c>
       <c r="I3" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -1077,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1118,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1162,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1206,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1250,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1294,9 +1274,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1314,7 +1294,7 @@
         <v>43935.296847662037</v>
       </c>
       <c r="H9" s="2">
-        <v>43948.623876292659</v>
+        <v>43948.623876296297</v>
       </c>
       <c r="I9" s="2">
         <v>43948.583333333343</v>
@@ -1326,7 +1306,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L9" s="2">
-        <v>25569.092587489089</v>
+        <v>25569.092587488431</v>
       </c>
       <c r="N9">
         <v>107</v>
@@ -1341,9 +1321,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -1385,9 +1365,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -1429,9 +1409,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -1473,9 +1453,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1517,9 +1497,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
@@ -1561,9 +1541,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -1605,9 +1585,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1649,9 +1629,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1695,7 +1675,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -1713,7 +1693,7 @@
         <v>43938.430392835653</v>
       </c>
       <c r="I18" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
@@ -1737,9 +1717,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -1781,9 +1761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -1825,9 +1805,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -1871,7 +1851,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
@@ -1889,7 +1869,7 @@
         <v>43941.306077152767</v>
       </c>
       <c r="I22" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J22" t="s">
         <v>39</v>
@@ -1915,7 +1895,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -1933,7 +1913,7 @@
         <v>43941.307375729157</v>
       </c>
       <c r="I23" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J23" t="s">
         <v>39</v>
@@ -1957,9 +1937,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -2001,9 +1981,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -2045,9 +2025,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
@@ -2089,9 +2069,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -2133,9 +2113,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
@@ -2177,9 +2157,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
@@ -2218,9 +2198,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2262,9 +2242,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -2303,9 +2283,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
@@ -2344,9 +2324,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -2388,9 +2368,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -2429,9 +2409,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>54</v>
@@ -2473,9 +2453,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>55</v>
@@ -2493,7 +2473,7 @@
         <v>43943.529597835652</v>
       </c>
       <c r="H36" s="2">
-        <v>43953.779807996369</v>
+        <v>43953.779807997693</v>
       </c>
       <c r="I36" s="2">
         <v>43952.8125</v>
@@ -2505,7 +2485,7 @@
         <v>25569</v>
       </c>
       <c r="L36" s="2">
-        <v>25569.141761291019</v>
+        <v>25569.141761296301</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2520,9 +2500,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>56</v>
@@ -2561,9 +2541,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -2602,9 +2582,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
@@ -2648,7 +2628,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
@@ -2666,7 +2646,7 @@
         <v>43943.825882754631</v>
       </c>
       <c r="I40" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J40" t="s">
         <v>39</v>
@@ -2690,9 +2670,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -2734,9 +2714,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
@@ -2778,9 +2758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -2822,9 +2802,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -2866,9 +2846,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
@@ -2886,7 +2866,7 @@
         <v>43944.965993356484</v>
       </c>
       <c r="H45" s="2">
-        <v>43947.740776169179</v>
+        <v>43947.740776168983</v>
       </c>
       <c r="I45" s="2">
         <v>43948</v>
@@ -2898,7 +2878,7 @@
         <v>25569.083333333328</v>
       </c>
       <c r="L45" s="2">
-        <v>25569.161630892289</v>
+        <v>25569.161630891209</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -2913,9 +2893,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
@@ -2960,9 +2940,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -2977,7 +2957,7 @@
         <v>43945.43035628472</v>
       </c>
       <c r="H47" s="2">
-        <v>43947.738962484262</v>
+        <v>43947.738962488424</v>
       </c>
       <c r="I47" s="2">
         <v>43948</v>
@@ -3004,9 +2984,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
@@ -3048,9 +3028,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -3095,9 +3075,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
@@ -3142,9 +3122,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
@@ -3188,7 +3168,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
@@ -3206,7 +3186,7 @@
         <v>43945.46835466435</v>
       </c>
       <c r="I52" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J52" t="s">
         <v>25</v>
@@ -3230,9 +3210,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
@@ -3271,9 +3251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>72</v>
@@ -3318,9 +3298,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -3365,9 +3345,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
@@ -3412,9 +3392,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
@@ -3432,7 +3412,7 @@
         <v>43947.802807395827</v>
       </c>
       <c r="H57" s="2">
-        <v>43949.872727937371</v>
+        <v>43949.872727939823</v>
       </c>
       <c r="I57" s="2">
         <v>43949.833333333343</v>
@@ -3444,7 +3424,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L57" s="2">
-        <v>25569.022331967011</v>
+        <v>25569.02233196759</v>
       </c>
       <c r="N57">
         <v>103</v>
@@ -3459,9 +3439,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3479,7 +3459,7 @@
         <v>43945.851959363426</v>
       </c>
       <c r="I58" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
@@ -3503,9 +3483,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3523,7 +3503,7 @@
         <v>43945.852494039347</v>
       </c>
       <c r="H59" s="2">
-        <v>43957.808351966298</v>
+        <v>43957.808351967593</v>
       </c>
       <c r="I59" s="2">
         <v>43959.958333333343</v>
@@ -3550,9 +3530,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3570,7 +3550,7 @@
         <v>43947.456175509258</v>
       </c>
       <c r="H60" s="2">
-        <v>43948.8400237272</v>
+        <v>43948.840023726851</v>
       </c>
       <c r="I60" s="2">
         <v>43948.958333333343</v>
@@ -3582,7 +3562,7 @@
         <v>25569.083333333328</v>
       </c>
       <c r="L60" s="2">
-        <v>25569.063959034869</v>
+        <v>25569.063959039351</v>
       </c>
       <c r="N60">
         <v>108</v>
@@ -3597,9 +3577,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
@@ -3617,7 +3597,7 @@
         <v>43948.495947233787</v>
       </c>
       <c r="H61" s="2">
-        <v>43948.506136380784</v>
+        <v>43948.506136377313</v>
       </c>
       <c r="I61" s="2">
         <v>43948.958333333343</v>
@@ -3629,7 +3609,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L61" s="2">
-        <v>25569.019642167648</v>
+        <v>25569.019642164349</v>
       </c>
       <c r="N61">
         <v>106</v>
@@ -3646,7 +3626,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
@@ -3664,7 +3644,7 @@
         <v>43947.531239652781</v>
       </c>
       <c r="I62" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J62" t="s">
         <v>39</v>
@@ -3688,9 +3668,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
@@ -3705,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="2">
-        <v>43948.428210741753</v>
+        <v>43948.428210740742</v>
       </c>
       <c r="I63" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
@@ -3732,9 +3712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
@@ -3749,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <v>43948.429496522862</v>
+        <v>43948.42949652778</v>
       </c>
       <c r="H64" s="2">
-        <v>43948.470561570517</v>
+        <v>43948.470561574068</v>
       </c>
       <c r="I64" s="2">
         <v>43948.958333333343</v>
@@ -3764,7 +3744,7 @@
         <v>25569.006944444449</v>
       </c>
       <c r="L64" s="2">
-        <v>25569.00473550638</v>
+        <v>25569.004735509261</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3779,9 +3759,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
@@ -3796,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>43948.509799789317</v>
+        <v>43948.509799791667</v>
       </c>
       <c r="H65" s="2">
-        <v>43948.516907680809</v>
+        <v>43948.516907685182</v>
       </c>
       <c r="I65" s="2">
         <v>43948.958333333343</v>
@@ -3811,7 +3791,7 @@
         <v>25569</v>
       </c>
       <c r="L65" s="2">
-        <v>25569.00705612827</v>
+        <v>25569.007056122689</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3826,9 +3806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>34</v>
@@ -3843,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="2">
-        <v>43949.516607900739</v>
+        <v>43949.51660790509</v>
       </c>
       <c r="H66" s="2">
-        <v>43949.577387484169</v>
+        <v>43949.577387488433</v>
       </c>
       <c r="I66" s="2">
         <v>43949.958333333343</v>
@@ -3858,7 +3838,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L66" s="2">
-        <v>25569.01448187407</v>
+        <v>25569.014481875001</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3873,9 +3853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>80</v>
@@ -3890,10 +3870,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="2">
-        <v>43949.396422121637</v>
+        <v>43949.396422118058</v>
       </c>
       <c r="H67" s="2">
-        <v>43949.716300679087</v>
+        <v>43949.71630068287</v>
       </c>
       <c r="I67" s="2">
         <v>43949.958333333343</v>
@@ -3905,7 +3885,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L67" s="2">
-        <v>25569.10311610335</v>
+        <v>25569.103116099541</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3920,9 +3900,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
@@ -3937,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>43949.397147056479</v>
+        <v>43949.397147060183</v>
       </c>
       <c r="H68" s="2">
-        <v>43950.572224431016</v>
+        <v>43950.572224432872</v>
       </c>
       <c r="I68" s="2">
         <v>43950.958333333343</v>
@@ -3952,7 +3932,7 @@
         <v>25569.083333333328</v>
       </c>
       <c r="L68" s="2">
-        <v>25569.029800113221</v>
+        <v>25569.029800115739</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -3969,7 +3949,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
@@ -3984,10 +3964,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>43949.39797888507</v>
+        <v>43949.39797888889</v>
       </c>
       <c r="I69" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J69" t="s">
         <v>39</v>
@@ -4011,9 +3991,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
@@ -4028,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>43949.404339333123</v>
+        <v>43949.404339328707</v>
       </c>
       <c r="H70" s="2">
-        <v>43952.940655202707</v>
+        <v>43952.940655208331</v>
       </c>
       <c r="I70" s="2">
         <v>43952.958333333343</v>
@@ -4058,9 +4038,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
@@ -4075,10 +4055,10 @@
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>43949.426135913352</v>
+        <v>43949.426135914349</v>
       </c>
       <c r="H71" s="2">
-        <v>43949.435406265213</v>
+        <v>43949.435406261568</v>
       </c>
       <c r="I71" s="2">
         <v>43949.958333333343</v>
@@ -4090,7 +4070,7 @@
         <v>25569.006944444449</v>
       </c>
       <c r="L71" s="2">
-        <v>25569.0091933279</v>
+        <v>25569.009193333339</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4105,9 +4085,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>85</v>
@@ -4122,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="G72" s="2">
-        <v>43949.435720588197</v>
+        <v>43949.435720590278</v>
       </c>
       <c r="H72" s="2">
-        <v>43949.457957062892</v>
+        <v>43949.457957060193</v>
       </c>
       <c r="I72" s="2">
         <v>43949.958333333343</v>
@@ -4137,7 +4117,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L72" s="2">
-        <v>25569.01643642105</v>
+        <v>25569.016436423612</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4154,7 +4134,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>86</v>
@@ -4169,10 +4149,10 @@
         <v>1</v>
       </c>
       <c r="G73" s="2">
-        <v>43949.438423077278</v>
+        <v>43949.438423078704</v>
       </c>
       <c r="I73" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J73" t="s">
         <v>39</v>
@@ -4196,9 +4176,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>34</v>
@@ -4213,10 +4193,10 @@
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>43950.577387484169</v>
+        <v>43950.577387488433</v>
       </c>
       <c r="H74" s="2">
-        <v>43949.974498480391</v>
+        <v>43949.974498483803</v>
       </c>
       <c r="I74" s="2">
         <v>43950.958333333343</v>
@@ -4228,7 +4208,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L74" s="2">
-        <v>25569.026356966158</v>
+        <v>25569.026356967592</v>
       </c>
       <c r="N74">
         <v>201</v>
@@ -4243,9 +4223,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>87</v>
@@ -4260,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="G75" s="2">
-        <v>43949.716019731168</v>
+        <v>43949.716019733787</v>
       </c>
       <c r="H75" s="2">
-        <v>43949.833782336158</v>
+        <v>43949.833782337962</v>
       </c>
       <c r="I75" s="2">
         <v>43949.958333333343</v>
@@ -4275,7 +4255,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L75" s="2">
-        <v>25569.095045473368</v>
+        <v>25569.09504547454</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4290,9 +4270,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>88</v>
@@ -4307,10 +4287,10 @@
         <v>1</v>
       </c>
       <c r="G76" s="2">
-        <v>43949.834174188603</v>
+        <v>43949.834174189818</v>
       </c>
       <c r="H76" s="2">
-        <v>43958.819997555831</v>
+        <v>43958.819997557868</v>
       </c>
       <c r="I76" s="2">
         <v>43958.958333333343</v>
@@ -4322,7 +4302,7 @@
         <v>25569.208333333328</v>
       </c>
       <c r="L76" s="2">
-        <v>25569.084511048899</v>
+        <v>25569.084511053239</v>
       </c>
       <c r="N76">
         <v>2</v>
@@ -4337,9 +4317,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
@@ -4354,10 +4334,10 @@
         <v>2</v>
       </c>
       <c r="G77" s="2">
-        <v>43951.872727937371</v>
+        <v>43951.872727939823</v>
       </c>
       <c r="H77" s="2">
-        <v>43951.884457924119</v>
+        <v>43951.884457928238</v>
       </c>
       <c r="I77" s="2">
         <v>43951.958333333343</v>
@@ -4384,9 +4364,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>34</v>
@@ -4401,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>43950.974498480391</v>
+        <v>43950.974498483803</v>
       </c>
       <c r="H78" s="2">
-        <v>43951.687766972849</v>
+        <v>43951.687766967603</v>
       </c>
       <c r="I78" s="2">
         <v>43951.958333333343</v>
@@ -4416,7 +4396,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L78" s="2">
-        <v>25569.033816064679</v>
+        <v>25569.03381606481</v>
       </c>
       <c r="N78">
         <v>104</v>
@@ -4431,9 +4411,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>89</v>
@@ -4448,10 +4428,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>43950.572123060017</v>
+        <v>43950.572123055557</v>
       </c>
       <c r="I79" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
@@ -4477,7 +4457,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>90</v>
@@ -4492,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>43950.579948392558</v>
+        <v>43950.579948391212</v>
       </c>
       <c r="I80" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J80" t="s">
         <v>39</v>
@@ -4519,9 +4499,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>91</v>
@@ -4536,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <v>43950.581096017537</v>
+        <v>43950.581096018519</v>
       </c>
       <c r="H81" s="2">
-        <v>43950.877292314639</v>
+        <v>43950.877292314814</v>
       </c>
       <c r="I81" s="2">
         <v>43950.958333333343</v>
@@ -4551,7 +4531,7 @@
         <v>25569</v>
       </c>
       <c r="L81" s="2">
-        <v>25569.01714461454</v>
+        <v>25569.01714461805</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4566,9 +4546,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
@@ -4583,10 +4563,10 @@
         <v>1</v>
       </c>
       <c r="G82" s="2">
-        <v>43950.645574489303</v>
+        <v>43950.645574490743</v>
       </c>
       <c r="H82" s="2">
-        <v>43955.666250492417</v>
+        <v>43955.666250497678</v>
       </c>
       <c r="I82" s="2">
         <v>43955.958333333343</v>
@@ -4615,7 +4595,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>93</v>
@@ -4630,10 +4610,10 @@
         <v>1</v>
       </c>
       <c r="G83" s="2">
-        <v>43951.568748313388</v>
+        <v>43951.568748310186</v>
       </c>
       <c r="I83" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J83" t="s">
         <v>39</v>
@@ -4659,7 +4639,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>94</v>
@@ -4674,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="G84" s="2">
-        <v>43951.570831320707</v>
+        <v>43951.570831319441</v>
       </c>
       <c r="I84" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J84" t="s">
         <v>39</v>
@@ -4701,9 +4681,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>95</v>
@@ -4718,10 +4698,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="2">
-        <v>43951.581506634233</v>
+        <v>43951.581506631941</v>
       </c>
       <c r="H85" s="2">
-        <v>43952.500720938457</v>
+        <v>43952.500720937504</v>
       </c>
       <c r="I85" s="2">
         <v>43952.958333333343</v>
@@ -4733,7 +4713,7 @@
         <v>25569</v>
       </c>
       <c r="L85" s="2">
-        <v>25569.013924177769</v>
+        <v>25569.013924178242</v>
       </c>
       <c r="N85">
         <v>106</v>
@@ -4748,9 +4728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>96</v>
@@ -4765,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="2">
-        <v>43952.607665047661</v>
+        <v>43952.607665046293</v>
       </c>
       <c r="H86" s="2">
-        <v>43953.767800382688</v>
+        <v>43953.767800381953</v>
       </c>
       <c r="I86" s="2">
         <v>43952.958333333343</v>
@@ -4795,9 +4775,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
@@ -4812,10 +4792,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="2">
-        <v>43951.699484208082</v>
+        <v>43951.699484212957</v>
       </c>
       <c r="H87" s="2">
-        <v>43959.634667305058</v>
+        <v>43959.634667303239</v>
       </c>
       <c r="I87" s="2">
         <v>43959.958333333343</v>
@@ -4827,7 +4807,7 @@
         <v>25569.083333333328</v>
       </c>
       <c r="L87" s="2">
-        <v>25569.03685980682</v>
+        <v>25569.03685980324</v>
       </c>
       <c r="N87">
         <v>210</v>
@@ -4842,9 +4822,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>98</v>
@@ -4859,19 +4839,19 @@
         <v>1</v>
       </c>
       <c r="G88" s="2">
-        <v>43951.700853642789</v>
+        <v>43951.700853645831</v>
       </c>
       <c r="I88" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K88" s="2">
         <v>25569.125</v>
       </c>
       <c r="L88" s="2">
-        <v>25569.030891588802</v>
+        <v>25569.030891585651</v>
       </c>
       <c r="N88">
         <v>211</v>
@@ -4886,9 +4866,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>99</v>
@@ -4903,10 +4883,10 @@
         <v>1</v>
       </c>
       <c r="G89" s="2">
-        <v>43951.702074744353</v>
+        <v>43951.702074745372</v>
       </c>
       <c r="I89" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J89" t="s">
         <v>23</v>
@@ -4930,9 +4910,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>51</v>
@@ -4947,10 +4927,10 @@
         <v>2</v>
       </c>
       <c r="G90" s="2">
-        <v>43953.884457924119</v>
+        <v>43953.884457928238</v>
       </c>
       <c r="H90" s="2">
-        <v>43953.849291868617</v>
+        <v>43953.849291863429</v>
       </c>
       <c r="I90" s="2">
         <v>43953.958333333343</v>
@@ -4977,9 +4957,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>100</v>
@@ -4994,10 +4974,10 @@
         <v>1</v>
       </c>
       <c r="G91" s="2">
-        <v>43952.399126764212</v>
+        <v>43952.399126759257</v>
       </c>
       <c r="H91" s="2">
-        <v>43952.403687486207</v>
+        <v>43952.403687488433</v>
       </c>
       <c r="I91" s="2">
         <v>43952.958333333343</v>
@@ -5009,7 +4989,7 @@
         <v>25569</v>
       </c>
       <c r="L91" s="2">
-        <v>25569.00441723449</v>
+        <v>25569.004417233791</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5026,7 +5006,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>101</v>
@@ -5041,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="G92" s="2">
-        <v>43952.402319246517</v>
+        <v>43952.402319247682</v>
       </c>
       <c r="I92" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J92" t="s">
         <v>39</v>
@@ -5068,9 +5048,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>102</v>
@@ -5085,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="G93" s="2">
-        <v>43952.612321726898</v>
+        <v>43952.61232172454</v>
       </c>
       <c r="H93" s="2">
-        <v>43952.709057120133</v>
+        <v>43952.709057118052</v>
       </c>
       <c r="I93" s="2">
         <v>43952.958333333343</v>
@@ -5100,7 +5080,7 @@
         <v>25569</v>
       </c>
       <c r="L93" s="2">
-        <v>25569.014293670509</v>
+        <v>25569.014293668981</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5115,9 +5095,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>51</v>
@@ -5132,10 +5112,10 @@
         <v>2</v>
       </c>
       <c r="G94" s="2">
-        <v>43955.849291868617</v>
+        <v>43955.849291863429</v>
       </c>
       <c r="H94" s="2">
-        <v>43956.899718747452</v>
+        <v>43956.899718749999</v>
       </c>
       <c r="I94" s="2">
         <v>43956.958333333343</v>
@@ -5162,9 +5142,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>103</v>
@@ -5179,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="2">
-        <v>43955.477774527113</v>
+        <v>43955.477774525461</v>
       </c>
       <c r="I95" s="2">
         <v>43968.958333333343</v>
@@ -5208,7 +5188,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>104</v>
@@ -5223,10 +5203,10 @@
         <v>1</v>
       </c>
       <c r="G96" s="2">
-        <v>43955.483529602803</v>
+        <v>43955.483529606478</v>
       </c>
       <c r="I96" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J96" t="s">
         <v>39</v>
@@ -5250,9 +5230,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>105</v>
@@ -5267,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>43955.484662593888</v>
+        <v>43955.484662592593</v>
       </c>
       <c r="H97" s="2">
-        <v>43955.666281552672</v>
+        <v>43955.666281550933</v>
       </c>
       <c r="I97" s="2">
         <v>43955.958333333343</v>
@@ -5282,7 +5262,7 @@
         <v>25569</v>
       </c>
       <c r="L97" s="2">
-        <v>25569.03188457662</v>
+        <v>25569.031884571759</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -5297,9 +5277,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>106</v>
@@ -5314,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="2">
-        <v>43955.484988427022</v>
+        <v>43955.484988425917</v>
       </c>
       <c r="H98" s="2">
-        <v>43955.501053303728</v>
+        <v>43955.501053298613</v>
       </c>
       <c r="I98" s="2">
         <v>43955.958333333343</v>
@@ -5329,7 +5309,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L98" s="2">
-        <v>25569.006134737581</v>
+        <v>25569.006134733801</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5344,9 +5324,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>107</v>
@@ -5361,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="2">
-        <v>43955.723999604568</v>
+        <v>43955.723999606482</v>
       </c>
       <c r="H99" s="2">
-        <v>43956.494678113413</v>
+        <v>43956.494678113428</v>
       </c>
       <c r="I99" s="2">
         <v>43956.958333333343</v>
@@ -5376,7 +5356,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L99" s="2">
-        <v>25569.058556673099</v>
+        <v>25569.058556678239</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5391,9 +5371,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>108</v>
@@ -5408,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="2">
-        <v>43956.432282657617</v>
+        <v>43956.432282662026</v>
       </c>
       <c r="H100" s="2">
-        <v>43957.590390328718</v>
+        <v>43957.590390324083</v>
       </c>
       <c r="I100" s="2">
         <v>43957.958333333343</v>
@@ -5423,7 +5403,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L100" s="2">
-        <v>25569.02500674468</v>
+        <v>25569.025006747681</v>
       </c>
       <c r="N100">
         <v>100</v>
@@ -5440,7 +5420,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>109</v>
@@ -5455,10 +5435,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="2">
-        <v>43956.43449216037</v>
+        <v>43956.43449216435</v>
       </c>
       <c r="I101" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
@@ -5482,9 +5462,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>110</v>
@@ -5499,10 +5479,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="2">
-        <v>43956.542513965112</v>
+        <v>43956.542513969907</v>
       </c>
       <c r="H102" s="2">
-        <v>43956.676416533803</v>
+        <v>43956.676416539347</v>
       </c>
       <c r="I102" s="2">
         <v>43956.958333333343</v>
@@ -5514,7 +5494,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L102" s="2">
-        <v>25569.115711810009</v>
+        <v>25569.11571180556</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5529,9 +5509,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
@@ -5546,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="G103" s="2">
-        <v>43958.899718747452</v>
+        <v>43958.899718749999</v>
       </c>
       <c r="H103" s="2">
-        <v>43957.88585717669</v>
+        <v>43957.885857175927</v>
       </c>
       <c r="I103" s="2">
         <v>43958.958333333343</v>
@@ -5576,9 +5556,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
@@ -5593,10 +5573,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="2">
-        <v>43958.590390328718</v>
+        <v>43958.590390324083</v>
       </c>
       <c r="H104" s="2">
-        <v>43958.986543378101</v>
+        <v>43958.986543379629</v>
       </c>
       <c r="I104" s="2">
         <v>43958.958333333343</v>
@@ -5608,7 +5588,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L104" s="2">
-        <v>25569.009190853041</v>
+        <v>25569.009190856479</v>
       </c>
       <c r="N104">
         <v>204</v>
@@ -5623,9 +5603,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>111</v>
@@ -5640,10 +5620,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="2">
-        <v>43957.621798903878</v>
+        <v>43957.621798900473</v>
       </c>
       <c r="I105" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
@@ -5667,9 +5647,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>51</v>
@@ -5684,10 +5664,10 @@
         <v>2</v>
       </c>
       <c r="G106" s="2">
-        <v>43959.88585717669</v>
+        <v>43959.885857175927</v>
       </c>
       <c r="H106" s="2">
-        <v>43960.547511361663</v>
+        <v>43960.547511365738</v>
       </c>
       <c r="I106" s="2">
         <v>43960.958333333343</v>
@@ -5714,9 +5694,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
@@ -5731,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="G107" s="2">
-        <v>43957.886139912313</v>
+        <v>43957.886139907409</v>
       </c>
       <c r="H107" s="2">
-        <v>43957.92393497008</v>
+        <v>43957.923934965278</v>
       </c>
       <c r="I107" s="2">
         <v>43957.958333333343</v>
@@ -5746,7 +5726,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L107" s="2">
-        <v>25569.037420748318</v>
+        <v>25569.03742075232</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5761,9 +5741,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
@@ -5778,10 +5758,10 @@
         <v>1</v>
       </c>
       <c r="G108" s="2">
-        <v>43957.886188934863</v>
+        <v>43957.886188935183</v>
       </c>
       <c r="H108" s="2">
-        <v>43957.941044645362</v>
+        <v>43957.9410446412</v>
       </c>
       <c r="I108" s="2">
         <v>43957.958333333343</v>
@@ -5793,7 +5773,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L108" s="2">
-        <v>25569.01705725494</v>
+        <v>25569.01705725694</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -5808,9 +5788,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
@@ -5825,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="G109" s="2">
-        <v>43958.61015358258</v>
+        <v>43958.610153587957</v>
       </c>
       <c r="I109" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J109" t="s">
         <v>45</v>
@@ -5852,9 +5832,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
@@ -5869,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="G110" s="2">
-        <v>43958.636490132631</v>
+        <v>43958.636490127312</v>
       </c>
       <c r="H110" s="2">
-        <v>43958.656086426032</v>
+        <v>43958.656086423609</v>
       </c>
       <c r="I110" s="2">
         <v>43958.958333333343</v>
@@ -5884,7 +5864,7 @@
         <v>25569.006944444449</v>
       </c>
       <c r="L110" s="2">
-        <v>25569.011211873771</v>
+        <v>25569.011211875</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -5899,9 +5879,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
@@ -5916,10 +5896,10 @@
         <v>1</v>
       </c>
       <c r="G111" s="2">
-        <v>43958.636545716457</v>
+        <v>43958.636545717593</v>
       </c>
       <c r="H111" s="2">
-        <v>43958.709181568243</v>
+        <v>43958.709181562503</v>
       </c>
       <c r="I111" s="2">
         <v>43958.958333333343</v>
@@ -5946,9 +5926,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>108</v>
@@ -5963,10 +5943,10 @@
         <v>1</v>
       </c>
       <c r="G112" s="2">
-        <v>43959.986543378101</v>
+        <v>43959.986543379629</v>
       </c>
       <c r="H112" s="2">
-        <v>43960.638251960067</v>
+        <v>43960.638251956021</v>
       </c>
       <c r="I112" s="2">
         <v>43959.958333333343</v>
@@ -5978,7 +5958,7 @@
         <v>25569.020833333328</v>
       </c>
       <c r="L112" s="2">
-        <v>25569.021707440101</v>
+        <v>25569.021707442131</v>
       </c>
       <c r="N112">
         <v>204</v>
@@ -5993,9 +5973,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>117</v>
@@ -6010,10 +5990,10 @@
         <v>1</v>
       </c>
       <c r="G113" s="2">
-        <v>43959.396584015289</v>
+        <v>43959.396584016213</v>
       </c>
       <c r="H113" s="2">
-        <v>43959.55639381022</v>
+        <v>43959.55639380787</v>
       </c>
       <c r="I113" s="2">
         <v>43959.958333333343</v>
@@ -6025,7 +6005,7 @@
         <v>25569.041666666672</v>
       </c>
       <c r="L113" s="2">
-        <v>25569.091040496169</v>
+        <v>25569.091040497689</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6040,9 +6020,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>51</v>
@@ -6057,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="G114" s="2">
-        <v>43962.547511361663</v>
+        <v>43962.547511365738</v>
       </c>
       <c r="I114" s="2">
         <v>43962.958333333343</v>
@@ -6084,9 +6064,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>118</v>
@@ -6101,10 +6081,10 @@
         <v>1</v>
       </c>
       <c r="G115" s="2">
-        <v>43960.584043646297</v>
+        <v>43960.584043645831</v>
       </c>
       <c r="I115" s="2">
-        <v>43962.958333333336</v>
+        <v>43962.958333333343</v>
       </c>
       <c r="J115" t="s">
         <v>45</v>
@@ -6130,7 +6110,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>119</v>
@@ -6145,10 +6125,10 @@
         <v>1</v>
       </c>
       <c r="G116" s="2">
-        <v>43960.584571271473</v>
+        <v>43960.584571273153</v>
       </c>
       <c r="I116" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J116" t="s">
         <v>39</v>
@@ -6172,9 +6152,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>108</v>
@@ -6189,25 +6169,28 @@
         <v>1</v>
       </c>
       <c r="G117" s="2">
-        <v>43961.638251960067</v>
+        <v>43961.638251956021</v>
+      </c>
+      <c r="H117" s="2">
+        <v>43961.551061599501</v>
       </c>
       <c r="I117" s="2">
         <v>43961.958333333343</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K117" s="2">
         <v>25569.020833333328</v>
       </c>
       <c r="L117" s="2">
-        <v>25569</v>
+        <v>25569.013688680559</v>
       </c>
       <c r="N117">
         <v>204</v>
       </c>
       <c r="O117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117">
         <v>3</v>
@@ -6218,7 +6201,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
@@ -6233,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="G118" s="2">
-        <v>43961.50924860435</v>
+        <v>43961.509248599526</v>
       </c>
       <c r="I118" s="2">
-        <v>43969.958333333336</v>
+        <v>43969.958333333343</v>
       </c>
       <c r="J118" t="s">
         <v>39</v>
@@ -6260,17 +6243,51 @@
         <v>4</v>
       </c>
     </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>108</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>43962.551061599501</v>
+      </c>
+      <c r="I119" s="2">
+        <v>43962.958333333343</v>
+      </c>
+      <c r="J119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119" s="2">
+        <v>25569.020833333328</v>
+      </c>
+      <c r="L119" s="2">
+        <v>25569</v>
+      </c>
+      <c r="N119">
+        <v>204</v>
+      </c>
+      <c r="O119" t="b">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>3</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q118" xr:uid="{0ADA1884-53DE-437C-8B5D-873FA8897BD7}">
-    <filterColumn colId="7">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
